--- a/Data/data_waterlevels/obs/04_Bores_with_water_levels.xlsx
+++ b/Data/data_waterlevels/obs/04_Bores_with_water_levels.xlsx
@@ -608,7 +608,7 @@
         <v>53</v>
       </c>
       <c r="Q2" t="n">
-        <v>172.1592343046966</v>
+        <v>166.1005522692371</v>
       </c>
       <c r="R2" t="n">
         <v>300.6790466308594</v>
@@ -631,7 +631,7 @@
         <v>77</v>
       </c>
       <c r="X2" t="n">
-        <v>51.51981232616282</v>
+        <v>57.57849436162232</v>
       </c>
     </row>
     <row r="3">
@@ -686,7 +686,7 @@
         <v>100</v>
       </c>
       <c r="Q3" t="n">
-        <v>-30.61829642886595</v>
+        <v>-38.19759185978572</v>
       </c>
       <c r="R3" t="n">
         <v>126.8984680175781</v>
@@ -709,7 +709,7 @@
         <v>114</v>
       </c>
       <c r="X3" t="n">
-        <v>184.5167644464441</v>
+        <v>192.0960598773638</v>
       </c>
     </row>
     <row r="4">
@@ -764,7 +764,7 @@
         <v>195</v>
       </c>
       <c r="Q4" t="n">
-        <v>-30.61829642886595</v>
+        <v>-38.19759185978572</v>
       </c>
       <c r="R4" t="n">
         <v>125.6984680175781</v>
@@ -787,7 +787,7 @@
         <v>107.1</v>
       </c>
       <c r="X4" t="n">
-        <v>191.4167644464441</v>
+        <v>198.9960598773638</v>
       </c>
     </row>
     <row r="5">
@@ -836,7 +836,7 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>-34.95164851130399</v>
+        <v>-30.09940783182764</v>
       </c>
       <c r="R5" t="n">
         <v>225.4196081542969</v>
@@ -855,7 +855,7 @@
         <v>30.47999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>290.8512566656009</v>
+        <v>285.9990159861245</v>
       </c>
     </row>
     <row r="6">
@@ -904,7 +904,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>103.3710254148608</v>
+        <v>99.98994319149693</v>
       </c>
       <c r="R6" t="n">
         <v>218.6327282714844</v>
@@ -923,7 +923,7 @@
         <v>23.16</v>
       </c>
       <c r="X6" t="n">
-        <v>138.4217028566236</v>
+        <v>141.8027850799874</v>
       </c>
     </row>
     <row r="7">
@@ -980,7 +980,7 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>129.2280373603336</v>
+        <v>136.3867306434984</v>
       </c>
       <c r="R7" t="n">
         <v>213.4787615966797</v>
@@ -999,7 +999,7 @@
         <v>18.28999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>102.5407242363461</v>
+        <v>95.38203095318133</v>
       </c>
     </row>
     <row r="8">
@@ -1056,7 +1056,7 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>-13.96590480412531</v>
+        <v>-9.826328863835043</v>
       </c>
       <c r="R8" t="n">
         <v>226.4986968994141</v>
@@ -1075,7 +1075,7 @@
         <v>14.32499999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>254.7896017035394</v>
+        <v>250.6500257632491</v>
       </c>
     </row>
     <row r="9">
@@ -1124,7 +1124,7 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>43.44785213470459</v>
+        <v>43.34441820780444</v>
       </c>
       <c r="R9" t="n">
         <v>224.0182409667969</v>
@@ -1143,7 +1143,7 @@
         <v>25.60499999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>206.1753888320923</v>
+        <v>206.2788227589924</v>
       </c>
     </row>
     <row r="10">
@@ -1192,7 +1192,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>125.1324039945805</v>
+        <v>124.9234915747161</v>
       </c>
       <c r="R10" t="n">
         <v>234.1297802734375</v>
@@ -1211,7 +1211,7 @@
         <v>23.00999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>132.007376278857</v>
+        <v>132.2162886987214</v>
       </c>
     </row>
     <row r="11">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>-1.924139497609388</v>
+        <v>4.166666666666743</v>
       </c>
       <c r="R11" t="n">
         <v>245.6666259765625</v>
@@ -1287,7 +1287,7 @@
         <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>250.5907654741719</v>
+        <v>244.4999593098958</v>
       </c>
     </row>
     <row r="12">
@@ -1336,7 +1336,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>14.989863749738</v>
+        <v>9.094018063090891</v>
       </c>
       <c r="R12" t="n">
         <v>203.8353955078125</v>
@@ -1355,7 +1355,7 @@
         <v>30.785</v>
       </c>
       <c r="X12" t="n">
-        <v>219.6305317580745</v>
+        <v>225.5263774447216</v>
       </c>
     </row>
     <row r="13">
@@ -1404,7 +1404,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>21.45085090527473</v>
+        <v>19.34590871780972</v>
       </c>
       <c r="R13" t="n">
         <v>207.84736328125</v>
@@ -1423,7 +1423,7 @@
         <v>26.97499999999999</v>
       </c>
       <c r="X13" t="n">
-        <v>213.3715123759753</v>
+        <v>215.4764545634403</v>
       </c>
     </row>
     <row r="14">
@@ -1472,7 +1472,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
-        <v>14.91353117753145</v>
+        <v>8.687593083418921</v>
       </c>
       <c r="R14" t="n">
         <v>204.3069421386719</v>
@@ -1491,7 +1491,7 @@
         <v>31.54500000000002</v>
       </c>
       <c r="X14" t="n">
-        <v>220.9384109611404</v>
+        <v>227.1643490552529</v>
       </c>
     </row>
     <row r="15">
@@ -1540,7 +1540,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
-        <v>-11.70229250070928</v>
+        <v>-11.75258152655756</v>
       </c>
       <c r="R15" t="n">
         <v>190.4321350097656</v>
@@ -1559,7 +1559,7 @@
         <v>35.05000000000001</v>
       </c>
       <c r="X15" t="n">
-        <v>237.1844275104749</v>
+        <v>237.2347165363232</v>
       </c>
     </row>
     <row r="16">
@@ -1608,7 +1608,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>-33.76205151001813</v>
+        <v>-32.59601094346769</v>
       </c>
       <c r="R16" t="n">
         <v>201.0123101806641</v>
@@ -1627,7 +1627,7 @@
         <v>26.66999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>261.4443616906822</v>
+        <v>260.2783211241318</v>
       </c>
     </row>
     <row r="17">
@@ -1676,7 +1676,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
-        <v>-51.7555334556562</v>
+        <v>-52.28261361351073</v>
       </c>
       <c r="R17" t="n">
         <v>212.0757043457031</v>
@@ -1695,7 +1695,7 @@
         <v>29.87</v>
       </c>
       <c r="X17" t="n">
-        <v>293.7012378013593</v>
+        <v>294.2283179592139</v>
       </c>
     </row>
     <row r="18">
@@ -1744,7 +1744,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="n">
-        <v>-52.89305463589034</v>
+        <v>-57.13239990700392</v>
       </c>
       <c r="R18" t="n">
         <v>205.0887060546875</v>
@@ -1763,7 +1763,7 @@
         <v>30.47999999999999</v>
       </c>
       <c r="X18" t="n">
-        <v>288.4617606905779</v>
+        <v>292.7011059616914</v>
       </c>
     </row>
     <row r="19">
@@ -1812,7 +1812,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="n">
-        <v>-3.126941934888771</v>
+        <v>-1.753622932342015</v>
       </c>
       <c r="R19" t="n">
         <v>223.3352612304688</v>
@@ -1831,7 +1831,7 @@
         <v>19.81</v>
       </c>
       <c r="X19" t="n">
-        <v>246.2722031653576</v>
+        <v>244.8988841628108</v>
       </c>
     </row>
     <row r="20">
@@ -1880,7 +1880,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="n">
-        <v>79.35658208663777</v>
+        <v>74.79416474587239</v>
       </c>
       <c r="R20" t="n">
         <v>214.0860864257812</v>
@@ -1899,7 +1899,7 @@
         <v>20.42000000000002</v>
       </c>
       <c r="X20" t="n">
-        <v>155.1495043391434</v>
+        <v>159.7119216799088</v>
       </c>
     </row>
     <row r="21">
@@ -1948,7 +1948,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="n">
-        <v>61.07888013396315</v>
+        <v>56.13914723201022</v>
       </c>
       <c r="R21" t="n">
         <v>217.2561242675781</v>
@@ -1967,7 +1967,7 @@
         <v>23.62</v>
       </c>
       <c r="X21" t="n">
-        <v>179.797244133615</v>
+        <v>184.7369770355679</v>
       </c>
     </row>
     <row r="22">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="n">
-        <v>19.89373179025384</v>
+        <v>19.37588554875959</v>
       </c>
       <c r="R22" t="n">
         <v>200.9783996582031</v>
@@ -2043,7 +2043,7 @@
         <v>41.09999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>210.0846678679493</v>
+        <v>210.6025141094435</v>
       </c>
     </row>
     <row r="23">
@@ -2092,7 +2092,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="n">
-        <v>-89.16671628783448</v>
+        <v>-94.53545330701198</v>
       </c>
       <c r="R23" t="n">
         <v>198.52576171875</v>
@@ -2111,7 +2111,7 @@
         <v>51.815</v>
       </c>
       <c r="X23" t="n">
-        <v>339.5074780065845</v>
+        <v>344.876215025762</v>
       </c>
     </row>
     <row r="24">
@@ -2160,7 +2160,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="n">
-        <v>-65.58088735703795</v>
+        <v>-75</v>
       </c>
       <c r="R24" t="n">
         <v>198.0232458496094</v>
@@ -2179,7 +2179,7 @@
         <v>30.47999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>294.0841332066473</v>
+        <v>303.5032458496094</v>
       </c>
     </row>
     <row r="25">
@@ -2228,7 +2228,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="n">
-        <v>-70.41602018123211</v>
+        <v>-75</v>
       </c>
       <c r="R25" t="n">
         <v>257.0063525390625</v>
@@ -2247,7 +2247,7 @@
         <v>12.19</v>
       </c>
       <c r="X25" t="n">
-        <v>339.6123727202946</v>
+        <v>344.1963525390625</v>
       </c>
     </row>
     <row r="26">
@@ -2296,7 +2296,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="n">
-        <v>-102.4494737284418</v>
+        <v>-99.26605224609375</v>
       </c>
       <c r="R26" t="n">
         <v>251.9586010742188</v>
@@ -2315,7 +2315,7 @@
         <v>21.33499999999998</v>
       </c>
       <c r="X26" t="n">
-        <v>375.7430748026606</v>
+        <v>372.5596533203126</v>
       </c>
     </row>
     <row r="27">
@@ -2364,7 +2364,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="n">
-        <v>-21.99732118237411</v>
+        <v>-13.3409157800978</v>
       </c>
       <c r="R27" t="n">
         <v>205.2593505859375</v>
@@ -2383,7 +2383,7 @@
         <v>22.09999999999999</v>
       </c>
       <c r="X27" t="n">
-        <v>249.3566717683116</v>
+        <v>240.7002663660353</v>
       </c>
     </row>
     <row r="28">
@@ -2432,7 +2432,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="n">
-        <v>-88.24016120459689</v>
+        <v>-90.98802245751477</v>
       </c>
       <c r="R28" t="n">
         <v>202.4469836425781</v>
@@ -2451,7 +2451,7 @@
         <v>31.09</v>
       </c>
       <c r="X28" t="n">
-        <v>321.777144847175</v>
+        <v>324.5250061000929</v>
       </c>
     </row>
     <row r="29">
@@ -2500,7 +2500,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="n">
-        <v>-47.8163560231526</v>
+        <v>-49.45921897888184</v>
       </c>
       <c r="R29" t="n">
         <v>201.0093298339844</v>
@@ -2519,7 +2519,7 @@
         <v>30.47999999999999</v>
       </c>
       <c r="X29" t="n">
-        <v>279.305685857137</v>
+        <v>280.9485488128662</v>
       </c>
     </row>
     <row r="30">
@@ -2568,7 +2568,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="n">
-        <v>43.10706936789207</v>
+        <v>23.00432021148581</v>
       </c>
       <c r="R30" t="n">
         <v>211.1771545410156</v>
@@ -2587,7 +2587,7 @@
         <v>23.25</v>
       </c>
       <c r="X30" t="n">
-        <v>191.3200851731235</v>
+        <v>211.4228343295298</v>
       </c>
     </row>
     <row r="31">
@@ -2636,7 +2636,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="n">
-        <v>11.55659325748766</v>
+        <v>24.19644675534912</v>
       </c>
       <c r="R31" t="n">
         <v>202.961572265625</v>
@@ -2655,7 +2655,7 @@
         <v>19.19999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>210.6049790081373</v>
+        <v>197.9651255102759</v>
       </c>
     </row>
     <row r="32">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
-        <v>202.2143383458469</v>
+        <v>201.2096563975017</v>
       </c>
       <c r="R32" t="n">
         <v>226.242431640625</v>
@@ -2731,7 +2731,7 @@
         <v>56</v>
       </c>
       <c r="X32" t="n">
-        <v>32.02809329477807</v>
+        <v>33.0327752431233</v>
       </c>
     </row>
     <row r="33">
@@ -2786,7 +2786,7 @@
         <v>125</v>
       </c>
       <c r="Q33" t="n">
-        <v>-34.1961463292439</v>
+        <v>-32.14281058140831</v>
       </c>
       <c r="R33" t="n">
         <v>172.4865600585938</v>
@@ -2809,7 +2809,7 @@
         <v>102</v>
       </c>
       <c r="X33" t="n">
-        <v>220.4827063878377</v>
+        <v>218.4293706400021</v>
       </c>
     </row>
     <row r="34">
@@ -2858,7 +2858,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="n">
-        <v>191.4063851038616</v>
+        <v>190.2888689570751</v>
       </c>
       <c r="R34" t="n">
         <v>221.9718127441406</v>
@@ -2877,7 +2877,7 @@
         <v>37.49000000000001</v>
       </c>
       <c r="X34" t="n">
-        <v>68.05542764027905</v>
+        <v>69.17294378706555</v>
       </c>
     </row>
     <row r="35">
@@ -2926,7 +2926,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="n">
-        <v>198.8307243084576</v>
+        <v>191.5051354257059</v>
       </c>
       <c r="R35" t="n">
         <v>211.2255017089844</v>
@@ -2945,7 +2945,7 @@
         <v>37.035</v>
       </c>
       <c r="X35" t="n">
-        <v>49.42977740052677</v>
+        <v>56.75536628327851</v>
       </c>
     </row>
     <row r="36">
@@ -2994,7 +2994,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="n">
-        <v>188.6995871861777</v>
+        <v>188.1205081939697</v>
       </c>
       <c r="R36" t="n">
         <v>213.3782263183594</v>
@@ -3013,7 +3013,7 @@
         <v>30.47999999999999</v>
       </c>
       <c r="X36" t="n">
-        <v>55.15863913218166</v>
+        <v>55.73771812438966</v>
       </c>
     </row>
     <row r="37">
@@ -3062,7 +3062,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="n">
-        <v>133.6874832832896</v>
+        <v>130.9572859757061</v>
       </c>
       <c r="R37" t="n">
         <v>228.6163854980469</v>
@@ -3081,7 +3081,7 @@
         <v>30.48000000000002</v>
       </c>
       <c r="X37" t="n">
-        <v>125.4089022147573</v>
+        <v>128.1390995223408</v>
       </c>
     </row>
     <row r="38">
@@ -3130,7 +3130,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="n">
-        <v>188.713026046753</v>
+        <v>188.8856172561646</v>
       </c>
       <c r="R38" t="n">
         <v>213.6415246582031</v>
@@ -3149,7 +3149,7 @@
         <v>21.94499999999999</v>
       </c>
       <c r="X38" t="n">
-        <v>46.87349861145017</v>
+        <v>46.70090740203858</v>
       </c>
     </row>
     <row r="39">
@@ -3198,7 +3198,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="n">
-        <v>188.7130260467529</v>
+        <v>189.4168472199509</v>
       </c>
       <c r="R39" t="n">
         <v>215.29599609375</v>
@@ -3217,7 +3217,7 @@
         <v>25.30000000000001</v>
       </c>
       <c r="X39" t="n">
-        <v>51.88297004699706</v>
+        <v>51.17914887379914</v>
       </c>
     </row>
     <row r="40">
@@ -3266,7 +3266,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="n">
-        <v>177.4937088348521</v>
+        <v>174.428319981513</v>
       </c>
       <c r="R40" t="n">
         <v>187.9462329101562</v>
@@ -3285,7 +3285,7 @@
         <v>50.44</v>
       </c>
       <c r="X40" t="n">
-        <v>60.89252407530412</v>
+        <v>63.95791292864317</v>
       </c>
     </row>
     <row r="41">
@@ -3334,7 +3334,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
-        <v>179.3997174141423</v>
+        <v>179.1000129684091</v>
       </c>
       <c r="R41" t="n">
         <v>194.4202685546875</v>
@@ -3353,7 +3353,7 @@
         <v>24.99000000000001</v>
       </c>
       <c r="X41" t="n">
-        <v>40.01055114054518</v>
+        <v>40.31025558627837</v>
       </c>
     </row>
     <row r="42">
@@ -3410,7 +3410,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="n">
-        <v>-44.08095677693677</v>
+        <v>-39.50241074709679</v>
       </c>
       <c r="R42" t="n">
         <v>194.2087731933594</v>
@@ -3429,7 +3429,7 @@
         <v>40.845</v>
       </c>
       <c r="X42" t="n">
-        <v>279.1347299702961</v>
+        <v>274.5561839404562</v>
       </c>
     </row>
     <row r="43">
@@ -3486,7 +3486,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="n">
-        <v>-31.15956122060039</v>
+        <v>-32.0397241959378</v>
       </c>
       <c r="R43" t="n">
         <v>186.4377185058594</v>
@@ -3505,7 +3505,7 @@
         <v>51.815</v>
       </c>
       <c r="X43" t="n">
-        <v>269.4122797264598</v>
+        <v>270.2924427017972</v>
       </c>
     </row>
     <row r="44">
@@ -3554,7 +3554,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="n">
-        <v>1.692627474066026</v>
+        <v>2.34504375586304</v>
       </c>
       <c r="R44" t="n">
         <v>211.1236315917969</v>
@@ -3573,7 +3573,7 @@
         <v>40.69</v>
       </c>
       <c r="X44" t="n">
-        <v>250.1210041177308</v>
+        <v>249.4685878359338</v>
       </c>
     </row>
     <row r="45">
@@ -3622,7 +3622,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="n">
-        <v>-112.0583375295002</v>
+        <v>-111.4801839180322</v>
       </c>
       <c r="R45" t="n">
         <v>212.700712890625</v>
@@ -3641,7 +3641,7 @@
         <v>32.76499999999999</v>
       </c>
       <c r="X45" t="n">
-        <v>357.5240504201253</v>
+        <v>356.9458968086572</v>
       </c>
     </row>
     <row r="46">
@@ -3690,7 +3690,7 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="n">
-        <v>-67.72819310267546</v>
+        <v>-62.13262173997632</v>
       </c>
       <c r="R46" t="n">
         <v>209.6440893554688</v>
@@ -3709,7 +3709,7 @@
         <v>27.43000000000001</v>
       </c>
       <c r="X46" t="n">
-        <v>304.8022824581442</v>
+        <v>299.2067110954451</v>
       </c>
     </row>
     <row r="47">
@@ -3758,7 +3758,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="n">
-        <v>-36.04815437692497</v>
+        <v>-34.50837185186134</v>
       </c>
       <c r="R47" t="n">
         <v>226.7663146972656</v>
@@ -3777,7 +3777,7 @@
         <v>30.02499999999998</v>
       </c>
       <c r="X47" t="n">
-        <v>292.8394690741906</v>
+        <v>291.299686549127</v>
       </c>
     </row>
     <row r="48">
@@ -3826,7 +3826,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="n">
-        <v>-109.1742224870982</v>
+        <v>-109.446366628011</v>
       </c>
       <c r="R48" t="n">
         <v>209.6197229003906</v>
@@ -3845,7 +3845,7 @@
         <v>39.47</v>
       </c>
       <c r="X48" t="n">
-        <v>358.2639453874888</v>
+        <v>358.5360895284016</v>
       </c>
     </row>
     <row r="49">
@@ -3894,7 +3894,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="n">
-        <v>-83.4894222915409</v>
+        <v>-76.212946027847</v>
       </c>
       <c r="R49" t="n">
         <v>206.5257934570312</v>
@@ -3913,7 +3913,7 @@
         <v>35.05000000000001</v>
       </c>
       <c r="X49" t="n">
-        <v>325.0652157485721</v>
+        <v>317.7887394848782</v>
       </c>
     </row>
     <row r="50">
@@ -3962,7 +3962,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="n">
-        <v>2.586000623467828</v>
+        <v>4.166666666666742</v>
       </c>
       <c r="R50" t="n">
         <v>227.1786706542969</v>
@@ -3981,7 +3981,7 @@
         <v>29.87</v>
       </c>
       <c r="X50" t="n">
-        <v>254.462670030829</v>
+        <v>252.8820039876301</v>
       </c>
     </row>
     <row r="51">
@@ -4030,7 +4030,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="n">
-        <v>-27.57124106089259</v>
+        <v>-24.93465741475416</v>
       </c>
       <c r="R51" t="n">
         <v>206.5324914550781</v>
@@ -4049,7 +4049,7 @@
         <v>29.87</v>
       </c>
       <c r="X51" t="n">
-        <v>263.9737325159707</v>
+        <v>261.3371488698323</v>
       </c>
     </row>
     <row r="52">
@@ -4098,7 +4098,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="n">
-        <v>-64.15183757664381</v>
+        <v>-55.87748361419082</v>
       </c>
       <c r="R52" t="n">
         <v>210.5811364746094</v>
@@ -4117,7 +4117,7 @@
         <v>34.745</v>
       </c>
       <c r="X52" t="n">
-        <v>309.4779740512532</v>
+        <v>301.2036200888002</v>
       </c>
     </row>
     <row r="53">
@@ -4166,7 +4166,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="n">
-        <v>4.166666666666742</v>
+        <v>2.779152801240441</v>
       </c>
       <c r="R53" t="n">
         <v>236.0668371582031</v>
@@ -4185,7 +4185,7 @@
         <v>12.95500000000001</v>
       </c>
       <c r="X53" t="n">
-        <v>244.8551704915364</v>
+        <v>246.2426843569627</v>
       </c>
     </row>
     <row r="54">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="n">
-        <v>4.166666666666742</v>
+        <v>0.05350136112081971</v>
       </c>
       <c r="R54" t="n">
         <v>7.408935546875</v>
@@ -4269,7 +4269,7 @@
         <v>233</v>
       </c>
       <c r="X54" t="n">
-        <v>20.24226888020826</v>
+        <v>24.35543418575418</v>
       </c>
     </row>
     <row r="55">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="n">
-        <v>-75</v>
+        <v>-75.08439911632323</v>
       </c>
       <c r="R55" t="n">
         <v>15.54800415039062</v>
@@ -4353,7 +4353,7 @@
         <v>230</v>
       </c>
       <c r="X55" t="n">
-        <v>110.5480041503906</v>
+        <v>110.6324032667139</v>
       </c>
     </row>
     <row r="56">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="n">
-        <v>-102.8636752109274</v>
+        <v>-94.98582413944337</v>
       </c>
       <c r="R57" t="n">
         <v>185.7731323242188</v>
@@ -4521,7 +4521,7 @@
         <v>74.30000000000001</v>
       </c>
       <c r="X57" t="n">
-        <v>324.3368075351462</v>
+        <v>316.4589564636622</v>
       </c>
     </row>
     <row r="58">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="n">
-        <v>84.82901451811017</v>
+        <v>102.1638923991119</v>
       </c>
       <c r="R58" t="n">
         <v>190.0364990234375</v>
@@ -4605,7 +4605,7 @@
         <v>38.09999999999999</v>
       </c>
       <c r="X58" t="n">
-        <v>133.1074845053273</v>
+        <v>115.7726066243256</v>
       </c>
     </row>
     <row r="59">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="n">
-        <v>-15.93241792096627</v>
+        <v>-26.53463681538893</v>
       </c>
       <c r="R59" t="n">
         <v>92.91084228515621</v>
@@ -4681,7 +4681,7 @@
         <v>166.025</v>
       </c>
       <c r="X59" t="n">
-        <v>120.2082602061225</v>
+        <v>130.8104791005451</v>
       </c>
     </row>
     <row r="60">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="n">
-        <v>-15.99045598512094</v>
+        <v>-26.53463681538892</v>
       </c>
       <c r="R60" t="n">
         <v>-34.49915771484382</v>
@@ -4765,7 +4765,7 @@
         <v>166.5</v>
       </c>
       <c r="X60" t="n">
-        <v>119.7912982702771</v>
+        <v>130.3354791005451</v>
       </c>
     </row>
     <row r="61">
@@ -4820,7 +4820,7 @@
         <v>100</v>
       </c>
       <c r="Q61" t="n">
-        <v>-30.61829642886595</v>
+        <v>-38.19759185978572</v>
       </c>
       <c r="R61" t="n">
         <v>126.8984680175781</v>
@@ -4843,7 +4843,7 @@
         <v>114</v>
       </c>
       <c r="X61" t="n">
-        <v>184.5167644464441</v>
+        <v>192.0960598773638</v>
       </c>
     </row>
     <row r="62">
@@ -4898,7 +4898,7 @@
         <v>161</v>
       </c>
       <c r="Q62" t="n">
-        <v>-67.8049353878653</v>
+        <v>-70.06401837966514</v>
       </c>
       <c r="R62" t="n">
         <v>131.7214965820312</v>
@@ -4921,7 +4921,7 @@
         <v>124.5</v>
       </c>
       <c r="X62" t="n">
-        <v>235.0264319698965</v>
+        <v>237.2855149616963</v>
       </c>
     </row>
     <row r="63">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="n">
-        <v>1.112244337621536</v>
+        <v>-0.8059414562337776</v>
       </c>
       <c r="R63" t="n">
         <v>66.89600219726563</v>
@@ -4997,7 +4997,7 @@
         <v>212.275</v>
       </c>
       <c r="X63" t="n">
-        <v>75.60875785964409</v>
+        <v>77.5269436534994</v>
       </c>
     </row>
     <row r="64">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="n">
-        <v>1.116280132286156</v>
+        <v>-0.8047382946773302</v>
       </c>
       <c r="R64" t="n">
         <v>5.996002197265625</v>
@@ -5073,7 +5073,7 @@
         <v>209.775</v>
       </c>
       <c r="X64" t="n">
-        <v>78.10472206497947</v>
+        <v>80.02574049194295</v>
       </c>
     </row>
     <row r="65">
@@ -5122,7 +5122,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="n">
-        <v>171.2075263745058</v>
+        <v>182.0138518359049</v>
       </c>
       <c r="R65" t="n">
         <v>195.1301281738281</v>
@@ -5141,7 +5141,7 @@
         <v>22.85999999999999</v>
       </c>
       <c r="X65" t="n">
-        <v>46.78260179932226</v>
+        <v>35.97627633792325</v>
       </c>
     </row>
     <row r="66">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="n">
-        <v>122.1200881247004</v>
+        <v>136.8985947071564</v>
       </c>
       <c r="R66" t="n">
         <v>221.7944073486328</v>
@@ -5217,7 +5217,7 @@
         <v>9.754999999999995</v>
       </c>
       <c r="X66" t="n">
-        <v>103.9393192239324</v>
+        <v>89.16081264147638</v>
       </c>
     </row>
     <row r="67">
@@ -5342,7 +5342,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="n">
-        <v>139.7340605793179</v>
+        <v>142.8276220957439</v>
       </c>
       <c r="R68" t="n">
         <v>190.0818896484375</v>
@@ -5361,7 +5361,7 @@
         <v>54.86500000000001</v>
       </c>
       <c r="X68" t="n">
-        <v>105.2128290691196</v>
+        <v>102.1192675526936</v>
       </c>
     </row>
     <row r="69">
@@ -5410,7 +5410,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="n">
-        <v>117.5590912501018</v>
+        <v>116.0301933942124</v>
       </c>
       <c r="R69" t="n">
         <v>272.6049108886719</v>
@@ -5429,7 +5429,7 @@
         <v>3.355000000000018</v>
       </c>
       <c r="X69" t="n">
-        <v>158.4008196385701</v>
+        <v>159.9297174944594</v>
       </c>
     </row>
     <row r="70">
@@ -5478,7 +5478,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="n">
-        <v>102.9506194589052</v>
+        <v>102.6900460017053</v>
       </c>
       <c r="R70" t="n">
         <v>174.3235046386719</v>
@@ -5497,7 +5497,7 @@
         <v>50.90000000000001</v>
       </c>
       <c r="X70" t="n">
-        <v>122.2728851797666</v>
+        <v>122.5334586369666</v>
       </c>
     </row>
     <row r="71">
@@ -5546,7 +5546,7 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="n">
-        <v>155.4130675599365</v>
+        <v>154.4143708944615</v>
       </c>
       <c r="R71" t="n">
         <v>197.0580126953125</v>
@@ -5565,7 +5565,7 @@
         <v>56.38999999999999</v>
       </c>
       <c r="X71" t="n">
-        <v>98.03494513537606</v>
+        <v>99.03364180085097</v>
       </c>
     </row>
     <row r="72">
@@ -5622,7 +5622,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="n">
-        <v>108.1553584166505</v>
+        <v>108.3173803670845</v>
       </c>
       <c r="R72" t="n">
         <v>196.9762017822266</v>
@@ -5641,7 +5641,7 @@
         <v>13.87</v>
       </c>
       <c r="X72" t="n">
-        <v>102.6908433655761</v>
+        <v>102.5288214151421</v>
       </c>
     </row>
     <row r="73">
@@ -5690,7 +5690,7 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="n">
-        <v>152.2432804107666</v>
+        <v>150.6705841103958</v>
       </c>
       <c r="R73" t="n">
         <v>196.1707006835938</v>
@@ -5709,7 +5709,7 @@
         <v>55.93000000000001</v>
       </c>
       <c r="X73" t="n">
-        <v>99.8574202728272</v>
+        <v>101.430116573198</v>
       </c>
     </row>
     <row r="74">
@@ -5758,7 +5758,7 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="n">
-        <v>149.5271983365265</v>
+        <v>145.5846612457572</v>
       </c>
       <c r="R74" t="n">
         <v>192.7517395019531</v>
@@ -5777,7 +5777,7 @@
         <v>55.625</v>
       </c>
       <c r="X74" t="n">
-        <v>98.84954116542667</v>
+        <v>102.7920782561959</v>
       </c>
     </row>
     <row r="75">
@@ -5826,7 +5826,7 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="n">
-        <v>161.9454799420322</v>
+        <v>161.143938084172</v>
       </c>
       <c r="R75" t="n">
         <v>187.2029504394531</v>
@@ -5845,7 +5845,7 @@
         <v>58.52000000000001</v>
       </c>
       <c r="X75" t="n">
-        <v>83.77747049742092</v>
+        <v>84.57901235528109</v>
       </c>
     </row>
     <row r="76">
@@ -5902,7 +5902,7 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="n">
-        <v>87.08579540252687</v>
+        <v>90.42588075002051</v>
       </c>
       <c r="R76" t="n">
         <v>208.0295904541016</v>
@@ -5921,7 +5921,7 @@
         <v>1.830000000000013</v>
       </c>
       <c r="X76" t="n">
-        <v>122.7737950515747</v>
+        <v>119.4337097040811</v>
       </c>
     </row>
     <row r="77">
@@ -5970,7 +5970,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="n">
-        <v>87.08579540252686</v>
+        <v>90.4258807500205</v>
       </c>
       <c r="R77" t="n">
         <v>180.353251953125</v>
@@ -5989,7 +5989,7 @@
         <v>15.24000000000001</v>
       </c>
       <c r="X77" t="n">
-        <v>108.5074565505981</v>
+        <v>105.1673712031045</v>
       </c>
     </row>
     <row r="78">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="n">
-        <v>96.97709878285741</v>
+        <v>109.3645572662354</v>
       </c>
       <c r="R79" t="n">
         <v>124.6149450683594</v>
@@ -6149,7 +6149,7 @@
         <v>94.48999999999998</v>
       </c>
       <c r="X79" t="n">
-        <v>35.25784628550201</v>
+        <v>22.87038780212407</v>
       </c>
     </row>
     <row r="80">
@@ -6206,7 +6206,7 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="n">
-        <v>118.0434942245484</v>
+        <v>121.1203893025718</v>
       </c>
       <c r="R80" t="n">
         <v>122.3016436767578</v>
@@ -6225,7 +6225,7 @@
         <v>53.34</v>
       </c>
       <c r="X80" t="n">
-        <v>57.59814945220946</v>
+        <v>54.52125437418604</v>
       </c>
     </row>
     <row r="81">
@@ -6282,7 +6282,7 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="n">
-        <v>153.6959443878742</v>
+        <v>155.4483571130572</v>
       </c>
       <c r="R81" t="n">
         <v>197.9338671875</v>
@@ -6301,7 +6301,7 @@
         <v>50.13999999999999</v>
       </c>
       <c r="X81" t="n">
-        <v>94.37792279962585</v>
+        <v>92.62551007444284</v>
       </c>
     </row>
     <row r="82">
@@ -6358,7 +6358,7 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="n">
-        <v>99.53048229217529</v>
+        <v>95.17432848612475</v>
       </c>
       <c r="R82" t="n">
         <v>205.797646484375</v>
@@ -6377,7 +6377,7 @@
         <v>25.14500000000001</v>
       </c>
       <c r="X82" t="n">
-        <v>131.4121641921997</v>
+        <v>135.7683179982502</v>
       </c>
     </row>
     <row r="83">
@@ -6426,7 +6426,7 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="n">
-        <v>162.5</v>
+        <v>163.433341944439</v>
       </c>
       <c r="R83" t="n">
         <v>168.6761022949219</v>
@@ -6445,7 +6445,7 @@
         <v>27.43000000000001</v>
       </c>
       <c r="X83" t="n">
-        <v>33.6061022949219</v>
+        <v>32.67276035048295</v>
       </c>
     </row>
     <row r="84">
@@ -6494,7 +6494,7 @@
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="n">
-        <v>106.2481005986533</v>
+        <v>106.479581197103</v>
       </c>
       <c r="R84" t="n">
         <v>208.0484533691406</v>
@@ -6513,7 +6513,7 @@
         <v>8.22999999999999</v>
       </c>
       <c r="X84" t="n">
-        <v>110.0303527704873</v>
+        <v>109.7988721720376</v>
       </c>
     </row>
     <row r="85">
@@ -6562,7 +6562,7 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="n">
-        <v>106.2481005986533</v>
+        <v>106.479581197103</v>
       </c>
       <c r="R85" t="n">
         <v>213.3552880859375</v>
@@ -6581,7 +6581,7 @@
         <v>7.469999999999999</v>
       </c>
       <c r="X85" t="n">
-        <v>114.5771874872842</v>
+        <v>114.3457068888345</v>
       </c>
     </row>
     <row r="86">
@@ -6630,7 +6630,7 @@
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="n">
-        <v>162.9097560411429</v>
+        <v>162.5023421950413</v>
       </c>
       <c r="R86" t="n">
         <v>181.6653771972656</v>
@@ -6649,7 +6649,7 @@
         <v>6.094999999999999</v>
       </c>
       <c r="X86" t="n">
-        <v>24.85062115612271</v>
+        <v>25.25803500222429</v>
       </c>
     </row>
     <row r="87">
@@ -7029,7 +7029,7 @@
         <v>19.05000000000001</v>
       </c>
       <c r="X91" t="n">
-        <v>20.97207946777337</v>
+        <v>20.9720794677734</v>
       </c>
     </row>
     <row r="92">
@@ -7105,7 +7105,7 @@
         <v>19.05000000000001</v>
       </c>
       <c r="X92" t="n">
-        <v>20.97207946777337</v>
+        <v>20.9720794677734</v>
       </c>
     </row>
     <row r="93">
@@ -7154,7 +7154,7 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="n">
-        <v>72.35348224639893</v>
+        <v>67.85045086551892</v>
       </c>
       <c r="R93" t="n">
         <v>201.664755859375</v>
@@ -7173,7 +7173,7 @@
         <v>30.47999999999999</v>
       </c>
       <c r="X93" t="n">
-        <v>159.7912736129761</v>
+        <v>164.2943049938561</v>
       </c>
     </row>
     <row r="94">
@@ -7222,7 +7222,7 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="n">
-        <v>85.21693207224416</v>
+        <v>83.33333333333348</v>
       </c>
       <c r="R94" t="n">
         <v>201.7258874511719</v>
@@ -7241,7 +7241,7 @@
         <v>55.17000000000002</v>
       </c>
       <c r="X94" t="n">
-        <v>171.6789553789277</v>
+        <v>173.5625541178384</v>
       </c>
     </row>
     <row r="95">
@@ -7298,7 +7298,7 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="n">
-        <v>74.03392623433366</v>
+        <v>83.33333333333348</v>
       </c>
       <c r="R95" t="n">
         <v>111.5664202880859</v>
@@ -7317,7 +7317,7 @@
         <v>56.39000000000001</v>
       </c>
       <c r="X95" t="n">
-        <v>93.92249405375223</v>
+        <v>84.62308695475241</v>
       </c>
     </row>
     <row r="96">
@@ -7380,7 +7380,7 @@
         <v>127</v>
       </c>
       <c r="Q96" t="n">
-        <v>82.60909223323407</v>
+        <v>82.2491986870296</v>
       </c>
       <c r="R96" t="n">
         <v>74.6215521240234</v>
@@ -7403,7 +7403,7 @@
         <v>91.44</v>
       </c>
       <c r="X96" t="n">
-        <v>59.68245989078935</v>
+        <v>60.04235343699381</v>
       </c>
     </row>
     <row r="97">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="n">
-        <v>102.5607188542685</v>
+        <v>101.0321617126465</v>
       </c>
       <c r="R97" t="n">
         <v>24.32459350585941</v>
@@ -7487,7 +7487,7 @@
         <v>81.66999999999999</v>
       </c>
       <c r="X97" t="n">
-        <v>26.63387465159089</v>
+        <v>28.16243179321292</v>
       </c>
     </row>
     <row r="98">
@@ -7544,7 +7544,7 @@
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="n">
-        <v>82.97773053326738</v>
+        <v>83.33333333333348</v>
       </c>
       <c r="R98" t="n">
         <v>113.2911029052734</v>
@@ -7563,7 +7563,7 @@
         <v>54.86500000000001</v>
       </c>
       <c r="X98" t="n">
-        <v>85.17837237200602</v>
+        <v>84.82276957193992</v>
       </c>
     </row>
     <row r="99">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="n">
-        <v>120.2717781066895</v>
+        <v>132.2531783434645</v>
       </c>
       <c r="R99" t="n">
         <v>47.74305908203118</v>
@@ -7647,7 +7647,7 @@
         <v>117.805</v>
       </c>
       <c r="X99" t="n">
-        <v>33.99628097534173</v>
+        <v>22.01488073856669</v>
       </c>
     </row>
     <row r="100">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="n">
-        <v>143.8286388887681</v>
+        <v>135.5056981999653</v>
       </c>
       <c r="R100" t="n">
         <v>39.1203588867188</v>
@@ -7731,7 +7731,7 @@
         <v>85.94999999999999</v>
       </c>
       <c r="X100" t="n">
-        <v>54.40171999795069</v>
+        <v>62.72466068675354</v>
       </c>
     </row>
     <row r="101">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="n">
-        <v>165.3985616165933</v>
+        <v>163.4277508306659</v>
       </c>
       <c r="R101" t="n">
         <v>51.96296264648439</v>
@@ -7815,7 +7815,7 @@
         <v>100.585</v>
       </c>
       <c r="X101" t="n">
-        <v>41.70940102989107</v>
+        <v>43.68021181581844</v>
       </c>
     </row>
     <row r="102">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="n">
-        <v>130.9750867962252</v>
+        <v>140.0253455172731</v>
       </c>
       <c r="R102" t="n">
         <v>-16.8158532714844</v>
@@ -7899,7 +7899,7 @@
         <v>92.965</v>
       </c>
       <c r="X102" t="n">
-        <v>64.65405993229044</v>
+        <v>55.60380121124254</v>
       </c>
     </row>
     <row r="103">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="n">
-        <v>-28.76204641004559</v>
+        <v>-18.71986389160156</v>
       </c>
       <c r="R103" t="n">
         <v>-27.87827758789064</v>
@@ -7983,7 +7983,7 @@
         <v>71.935</v>
       </c>
       <c r="X103" t="n">
-        <v>233.748768822155</v>
+        <v>223.7065863037109</v>
       </c>
     </row>
     <row r="104">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="n">
-        <v>92.29270503108826</v>
+        <v>109.3645572662353</v>
       </c>
       <c r="R105" t="n">
         <v>169.8136157226562</v>
@@ -8151,7 +8151,7 @@
         <v>54.845</v>
       </c>
       <c r="X105" t="n">
-        <v>81.50591069156793</v>
+        <v>64.43405845642086</v>
       </c>
     </row>
     <row r="106">
@@ -8206,7 +8206,7 @@
         <v>102</v>
       </c>
       <c r="Q106" t="n">
-        <v>153.3587058385215</v>
+        <v>152.7895927429199</v>
       </c>
       <c r="R106" t="n">
         <v>192.2810974121094</v>
@@ -8229,7 +8229,7 @@
         <v>105</v>
       </c>
       <c r="X106" t="n">
-        <v>41.9223915735879</v>
+        <v>42.49150466918945</v>
       </c>
     </row>
     <row r="107">
@@ -8282,7 +8282,7 @@
       </c>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="n">
-        <v>125.4604122965883</v>
+        <v>129.8747134335314</v>
       </c>
       <c r="R107" t="n">
         <v>203.2963256835938</v>
@@ -8305,7 +8305,7 @@
         <v>73</v>
       </c>
       <c r="X107" t="n">
-        <v>98.83591338700549</v>
+        <v>94.42161225006237</v>
       </c>
     </row>
     <row r="108">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="n">
-        <v>173.1208506951907</v>
+        <v>169.405460357666</v>
       </c>
       <c r="R108" t="n">
         <v>173.5551300048828</v>
@@ -8381,7 +8381,7 @@
         <v>59</v>
       </c>
       <c r="X108" t="n">
-        <v>21.43427930969216</v>
+        <v>25.1496696472168</v>
       </c>
     </row>
     <row r="109">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="n">
-        <v>109.7668778530998</v>
+        <v>100.5528494167635</v>
       </c>
       <c r="R109" t="n">
         <v>115.8902893066406</v>
@@ -8457,7 +8457,7 @@
         <v>144</v>
       </c>
       <c r="X109" t="n">
-        <v>12.12341145354085</v>
+        <v>21.33743988987712</v>
       </c>
     </row>
     <row r="110">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="n">
-        <v>109.777303563945</v>
+        <v>100.5518840000068</v>
       </c>
       <c r="R110" t="n">
         <v>201.8902893066406</v>
@@ -8533,7 +8533,7 @@
         <v>58</v>
       </c>
       <c r="X110" t="n">
-        <v>98.11298574269563</v>
+        <v>107.3384053066339</v>
       </c>
     </row>
   </sheetData>
